--- a/Parts (toBuy).xlsx
+++ b/Parts (toBuy).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\Github\Hexapod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C99E2B3F-B991-4314-B37F-D021A54F1A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E2C2C9-AEE3-46F5-B5EB-FB235BD2EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="4470" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18228" yWindow="6012" windowWidth="17280" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Screws</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Link (all provided links are where I bought or would buy and likely not the cheapest option). Prices may vary based on where, when and how you buy.</t>
+  </si>
+  <si>
+    <t>You will also need an ST-Link (or some other programmer) and a Phone.</t>
   </si>
 </sst>
 </file>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,6 +1144,11 @@
       <c r="G38">
         <f>G35+I35</f>
         <v>119.30760000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">

--- a/Parts (toBuy).xlsx
+++ b/Parts (toBuy).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\Github\Hexapod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E2C2C9-AEE3-46F5-B5EB-FB235BD2EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790AF0AD-752F-42B4-9827-624CF60C2059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18228" yWindow="6012" windowWidth="17280" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>Screws</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>You will also need an ST-Link (or some other programmer) and a Phone.</t>
+  </si>
+  <si>
+    <t>HC-05</t>
+  </si>
+  <si>
+    <t>https://de.aliexpress.com/item/32967247206</t>
   </si>
 </sst>
 </file>
@@ -549,20 +555,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -582,7 +588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -607,7 +613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -629,7 +635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -651,7 +657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -673,7 +679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -695,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -717,7 +723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -739,7 +745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -761,7 +767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -780,7 +786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>44</v>
       </c>
@@ -805,7 +811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -827,7 +833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -848,202 +854,199 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>2.5099999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
+        <v>2.11</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G20">
+        <f>F20*E20</f>
         <v>5.0199999999999996</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>4.5</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
+      <c r="G21">
+        <f>F21*E21</f>
         <v>4.5</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>1.51</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
+      <c r="G22">
+        <f>F22*E22</f>
         <v>1.51</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22">
-        <v>60</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>5.83</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>5.83</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>5.83</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>F23*E23</f>
+        <v>5.83</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>F24*E24</f>
+        <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f>F25*E25</f>
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>7.28</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
+      <c r="G26">
+        <f>F26*E26</f>
         <v>14.56</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>3.99</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
+      <c r="G27">
+        <f>F27*E27</f>
         <v>15.96</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>0.81</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
+      <c r="G28">
+        <f>F28*E28</f>
         <v>0.81</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -1054,55 +1057,58 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1.1299999999999999</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>1.1299999999999999</v>
+        <f>F29*E29</f>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G30">
+        <f>F30*E30</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>18</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>2.85</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
+      <c r="G31">
+        <f>F31*E31</f>
         <v>51.300000000000004</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>50</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.78</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0.78</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>51</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1111,57 +1117,75 @@
         <v>0.78</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f>F32*E32</f>
         <v>0.78</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G34" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.78</v>
+      </c>
+      <c r="G33">
+        <f>F33*E33</f>
+        <v>0.78</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
         <v>28</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G35">
-        <f>G5+G6+G7+G8+G9+G10+G11+G12+G13+G14+G15+G16+G17+G18+G19+G20+G21+G22+G23+G24+G25+G26+G27+G28+G29+G30+G31+G32</f>
-        <v>119.30760000000001</v>
-      </c>
-      <c r="I35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f>G5+G6+G7+G8+G9+G10+G11+G12+G13+G14+G15+G16+G17+G18+G20+G21+G22+G23+G24+G25+G26+G27+G28+G29+G30+G31+G32+G33+G19</f>
+        <v>121.41760000000001</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G37" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G38">
-        <f>G35+I35</f>
-        <v>119.30760000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f>G36+I36</f>
+        <v>121.41760000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -1268,12 +1292,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>5</v>
       </c>
@@ -1309,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>17</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>23</v>
       </c>
@@ -1417,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>24</v>
       </c>
@@ -1425,12 +1449,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>25</v>
       </c>
@@ -1439,28 +1463,29 @@
   <hyperlinks>
     <hyperlink ref="H16" r:id="rId1" xr:uid="{66DD139D-0BA3-4744-BB48-C706060563F5}"/>
     <hyperlink ref="H18" r:id="rId2" xr:uid="{420F35E1-1101-4233-A8E8-10B14A67290D}"/>
-    <hyperlink ref="H23" r:id="rId3" xr:uid="{087149FD-4907-4877-B7E0-F6946B92676E}"/>
-    <hyperlink ref="H24" r:id="rId4" xr:uid="{A6B5D124-67B4-47AF-B7AD-1E1EC511702D}"/>
+    <hyperlink ref="H24" r:id="rId3" xr:uid="{087149FD-4907-4877-B7E0-F6946B92676E}"/>
+    <hyperlink ref="H25" r:id="rId4" xr:uid="{A6B5D124-67B4-47AF-B7AD-1E1EC511702D}"/>
     <hyperlink ref="H5" r:id="rId5" xr:uid="{60560EC9-6491-4581-80A8-33E21A909138}"/>
     <hyperlink ref="H6:H9" r:id="rId6" display="https://www.aliexpress.com/item/1005001975621423.html" xr:uid="{65F67A11-0FB4-4E40-AA46-218FB319286C}"/>
-    <hyperlink ref="H27" r:id="rId7" xr:uid="{CAD90BB7-97B2-4720-94CC-54D34CFDA7C0}"/>
-    <hyperlink ref="H21" r:id="rId8" xr:uid="{2DBBFC6B-96AC-4608-ADEE-E077368BD034}"/>
-    <hyperlink ref="H22" r:id="rId9" xr:uid="{8190555B-4585-43BC-8247-AC5DB2AE4AD0}"/>
-    <hyperlink ref="H25" r:id="rId10" xr:uid="{C2E32AFA-F5F5-4B24-A05F-B3345C633BA5}"/>
+    <hyperlink ref="H28" r:id="rId7" xr:uid="{CAD90BB7-97B2-4720-94CC-54D34CFDA7C0}"/>
+    <hyperlink ref="H22" r:id="rId8" xr:uid="{2DBBFC6B-96AC-4608-ADEE-E077368BD034}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{8190555B-4585-43BC-8247-AC5DB2AE4AD0}"/>
+    <hyperlink ref="H26" r:id="rId10" xr:uid="{C2E32AFA-F5F5-4B24-A05F-B3345C633BA5}"/>
     <hyperlink ref="H15" r:id="rId11" xr:uid="{F3F4086D-AA85-4B35-8E42-9AFF56B8BC90}"/>
-    <hyperlink ref="H19" r:id="rId12" xr:uid="{46B532D3-FCCB-4ECF-951B-000863FEE5A0}"/>
-    <hyperlink ref="H30" r:id="rId13" xr:uid="{3B5CB50C-2B4D-4740-BFEB-69A7BDB433C7}"/>
+    <hyperlink ref="H20" r:id="rId12" xr:uid="{46B532D3-FCCB-4ECF-951B-000863FEE5A0}"/>
+    <hyperlink ref="H31" r:id="rId13" xr:uid="{3B5CB50C-2B4D-4740-BFEB-69A7BDB433C7}"/>
     <hyperlink ref="H14" r:id="rId14" xr:uid="{D9CDDE5D-9415-4B52-A23C-C248F96D50A3}"/>
-    <hyperlink ref="H31" r:id="rId15" xr:uid="{F724F8EC-BEC7-4A0A-B7F4-BB0BBC054E2D}"/>
-    <hyperlink ref="H32" r:id="rId16" xr:uid="{A080B956-94D0-433E-BCBC-6E59BD0D3205}"/>
+    <hyperlink ref="H32" r:id="rId15" xr:uid="{F724F8EC-BEC7-4A0A-B7F4-BB0BBC054E2D}"/>
+    <hyperlink ref="H33" r:id="rId16" xr:uid="{A080B956-94D0-433E-BCBC-6E59BD0D3205}"/>
     <hyperlink ref="H10" r:id="rId17" xr:uid="{F5C29520-12A3-4CAD-8B24-8F07294B6AF1}"/>
     <hyperlink ref="H11:H12" r:id="rId18" display="https://www.aliexpress.com/item/4000020967604.html" xr:uid="{6187C9A8-86CF-400C-8CF4-2B337A3AE5A8}"/>
-    <hyperlink ref="H20" r:id="rId19" xr:uid="{73FE84DC-5551-4923-BCAB-00ABA255C57C}"/>
-    <hyperlink ref="H28" r:id="rId20" xr:uid="{50A64FC6-4A3E-4D9B-9F30-BA8DF3937709}"/>
-    <hyperlink ref="H29" r:id="rId21" xr:uid="{242C0E89-59A4-432E-810F-EAB7726CE07B}"/>
-    <hyperlink ref="H26" r:id="rId22" xr:uid="{1F14C0E9-72F0-4C34-96B4-6BD91D46661B}"/>
+    <hyperlink ref="H21" r:id="rId19" xr:uid="{73FE84DC-5551-4923-BCAB-00ABA255C57C}"/>
+    <hyperlink ref="H29" r:id="rId20" xr:uid="{50A64FC6-4A3E-4D9B-9F30-BA8DF3937709}"/>
+    <hyperlink ref="H30" r:id="rId21" xr:uid="{242C0E89-59A4-432E-810F-EAB7726CE07B}"/>
+    <hyperlink ref="H27" r:id="rId22" xr:uid="{1F14C0E9-72F0-4C34-96B4-6BD91D46661B}"/>
+    <hyperlink ref="H19" r:id="rId23" xr:uid="{D80E0003-5963-4F9A-8AF9-58340C566BE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Parts (toBuy).xlsx
+++ b/Parts (toBuy).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\Github\Hexapod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790AF0AD-752F-42B4-9827-624CF60C2059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F939F8-0582-4AE2-A07C-07CCEA638497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>https://www.aliexpress.com/item/1005002320527374.html</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1005005104929560.html</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/1005003185980117.html</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>You will only need 8 to build the Hexapod. The rest are for adding potential modules in the future</t>
   </si>
   <si>
-    <t>Link (all provided links are where I bought or would buy and likely not the cheapest option). Prices may vary based on where, when and how you buy.</t>
-  </si>
-  <si>
     <t>You will also need an ST-Link (or some other programmer) and a Phone.</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>https://de.aliexpress.com/item/32967247206</t>
+  </si>
+  <si>
+    <t>https://de.aliexpress.com/item/1005005967596775.html</t>
+  </si>
+  <si>
+    <t>Link (all provided links are where I bought or would buy and likely not the cheapest option). Prices may vary based on where, when and how you buy. If these Links are no longer valid just search for the Type.</t>
   </si>
 </sst>
 </file>
@@ -556,19 +556,19 @@
   <dimension ref="B4:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -585,10 +585,10 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -635,7 +635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -657,7 +657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -679,7 +679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -701,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -720,10 +720,10 @@
         <v>0.31200000000000006</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -742,10 +742,10 @@
         <v>0.12960000000000002</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -764,10 +764,10 @@
         <v>1.1459999999999999</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -783,12 +783,12 @@
         <v>1.0176000000000001</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -808,10 +808,10 @@
         <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -833,7 +833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -847,16 +847,16 @@
         <v>1.58</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G32" si="1">F18*E18</f>
+        <f t="shared" ref="G18:G19" si="1">F18*E18</f>
         <v>1.58</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -869,10 +869,10 @@
         <v>2.11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>17</v>
       </c>
@@ -883,14 +883,14 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="G20">
-        <f>F20*E20</f>
+        <f t="shared" ref="G20:G33" si="2">F20*E20</f>
         <v>5.0199999999999996</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -901,14 +901,14 @@
         <v>4.5</v>
       </c>
       <c r="G21">
-        <f>F21*E21</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -919,14 +919,14 @@
         <v>1.51</v>
       </c>
       <c r="G22">
-        <f>F22*E22</f>
+        <f t="shared" si="2"/>
         <v>1.51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -940,14 +940,14 @@
         <v>5.83</v>
       </c>
       <c r="G23">
-        <f>F23*E23</f>
+        <f t="shared" si="2"/>
         <v>5.83</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -961,14 +961,14 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <f>F24*E24</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -982,14 +982,14 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <f>F25*E25</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -1003,14 +1003,14 @@
         <v>7.28</v>
       </c>
       <c r="G26">
-        <f>F26*E26</f>
+        <f t="shared" si="2"/>
         <v>14.56</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -1021,14 +1021,14 @@
         <v>3.99</v>
       </c>
       <c r="G27">
-        <f>F27*E27</f>
+        <f t="shared" si="2"/>
         <v>15.96</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -1039,19 +1039,19 @@
         <v>0.81</v>
       </c>
       <c r="G28">
-        <f>F28*E28</f>
+        <f t="shared" si="2"/>
         <v>0.81</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1060,19 +1060,19 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="G29">
-        <f>F29*E29</f>
+        <f t="shared" si="2"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1081,14 +1081,14 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="G30">
-        <f>F30*E30</f>
+        <f t="shared" si="2"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -1099,16 +1099,16 @@
         <v>2.85</v>
       </c>
       <c r="G31">
-        <f>F31*E31</f>
+        <f t="shared" si="2"/>
         <v>51.300000000000004</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1117,16 +1117,16 @@
         <v>0.78</v>
       </c>
       <c r="G32">
-        <f>F32*E32</f>
+        <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1135,22 +1135,22 @@
         <v>0.78</v>
       </c>
       <c r="G33">
-        <f>F33*E33</f>
+        <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
         <v>28</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G36">
         <f>G5+G6+G7+G8+G9+G10+G11+G12+G13+G14+G15+G16+G17+G18+G20+G21+G22+G23+G24+G25+G26+G27+G28+G29+G30+G31+G32+G33+G19</f>
         <v>121.41760000000001</v>
@@ -1159,33 +1159,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G39">
         <f>G36+I36</f>
         <v>121.41760000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -1292,12 +1292,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>17</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>20</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>23</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>24</v>
       </c>
@@ -1449,12 +1449,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>25</v>
       </c>
